--- a/upload/me.xlsx
+++ b/upload/me.xlsx
@@ -402,8 +402,8 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2">
-        <v>44807</v>
+      <c r="A2" t="str">
+        <v>2022.9.3</v>
       </c>
       <c r="B2" t="str">
         <v>FM消防检查</v>
@@ -411,16 +411,16 @@
       <c r="C2" t="str">
         <v>第一周</v>
       </c>
-      <c r="D2">
-        <v>44807</v>
+      <c r="D2" t="str">
+        <v>2022.9.3</v>
       </c>
       <c r="E2" t="str">
         <v>已完成</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3">
-        <v>44807</v>
+      <c r="A3" t="str">
+        <v>2022.9.3</v>
       </c>
       <c r="B3" t="str">
         <v>FM消防检查</v>
@@ -428,16 +428,16 @@
       <c r="C3" t="str">
         <v>第二周</v>
       </c>
-      <c r="D3">
-        <v>44814</v>
+      <c r="D3" t="str">
+        <v>2022.9.10</v>
       </c>
       <c r="E3" t="str">
         <v>未完成</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4">
-        <v>44807</v>
+      <c r="A4" t="str">
+        <v>2022.9.3</v>
       </c>
       <c r="B4" t="str">
         <v>FM消防检查</v>
@@ -445,16 +445,16 @@
       <c r="C4" t="str">
         <v>第三周</v>
       </c>
-      <c r="D4">
-        <v>44821</v>
+      <c r="D4" t="str">
+        <v>2022.9.17</v>
       </c>
       <c r="E4" t="str">
         <v>未完成</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5">
-        <v>44807</v>
+      <c r="A5" t="str">
+        <v>2022.9.3</v>
       </c>
       <c r="B5" t="str">
         <v>FM消防检查</v>
@@ -462,16 +462,16 @@
       <c r="C5" t="str">
         <v>第四周</v>
       </c>
-      <c r="D5">
-        <v>44828</v>
+      <c r="D5" t="str">
+        <v>2022.9.24</v>
       </c>
       <c r="E5" t="str">
         <v>未完成</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6">
-        <v>44807</v>
+      <c r="A6" t="str">
+        <v>2022.9.3</v>
       </c>
       <c r="B6" t="str">
         <v>FM消防检查</v>
@@ -479,16 +479,16 @@
       <c r="C6" t="str">
         <v>月度</v>
       </c>
-      <c r="D6">
-        <v>44834</v>
+      <c r="D6" t="str">
+        <v>2022.9.30</v>
       </c>
       <c r="E6" t="str">
         <v>未完成</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7">
-        <v>44807</v>
+      <c r="A7" t="str">
+        <v>2022.9.3</v>
       </c>
       <c r="B7" t="str">
         <v>FM消防检查</v>
@@ -496,16 +496,16 @@
       <c r="C7" t="str">
         <v>季度</v>
       </c>
-      <c r="D7">
-        <v>44834</v>
+      <c r="D7" t="str">
+        <v>2022.9.30</v>
       </c>
       <c r="E7" t="str">
         <v>未完成</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8">
-        <v>44807</v>
+      <c r="A8" t="str">
+        <v>2022.9.3</v>
       </c>
       <c r="B8" t="str">
         <v>虫鼠害检查</v>
@@ -513,16 +513,16 @@
       <c r="C8" t="str">
         <v>上半月</v>
       </c>
-      <c r="D8">
-        <v>44809</v>
+      <c r="D8" t="str">
+        <v>2022.9.5</v>
       </c>
       <c r="E8" t="str">
         <v>已完成</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9">
-        <v>44807</v>
+      <c r="A9" t="str">
+        <v>2022.9.3</v>
       </c>
       <c r="B9" t="str">
         <v>虫鼠害检查</v>
@@ -530,8 +530,8 @@
       <c r="C9" t="str">
         <v>下半月</v>
       </c>
-      <c r="D9">
-        <v>44824</v>
+      <c r="D9" t="str">
+        <v>2022.9.20</v>
       </c>
       <c r="E9" t="str">
         <v>未完成</v>
